--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F2-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F2-F2r.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H2">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I2">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J2">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.607073666666667</v>
+        <v>11.05182166666667</v>
       </c>
       <c r="N2">
-        <v>25.821221</v>
+        <v>33.155465</v>
       </c>
       <c r="O2">
-        <v>0.09431423806264486</v>
+        <v>0.09655996768538078</v>
       </c>
       <c r="P2">
-        <v>0.09431423806264484</v>
+        <v>0.09655996768538078</v>
       </c>
       <c r="Q2">
-        <v>5.801500458181778</v>
+        <v>8.338831535755</v>
       </c>
       <c r="R2">
-        <v>52.213504123636</v>
+        <v>75.04948382179499</v>
       </c>
       <c r="S2">
-        <v>0.0288443044589737</v>
+        <v>0.02673169555059838</v>
       </c>
       <c r="T2">
-        <v>0.0288443044589737</v>
+        <v>0.02673169555059838</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H3">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I3">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J3">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>213.094025</v>
       </c>
       <c r="O3">
-        <v>0.7783443162342011</v>
+        <v>0.620602129029037</v>
       </c>
       <c r="P3">
-        <v>0.778344316234201</v>
+        <v>0.620602129029037</v>
       </c>
       <c r="Q3">
-        <v>47.87787082854445</v>
+        <v>53.59463894567499</v>
       </c>
       <c r="R3">
-        <v>430.9008374569</v>
+        <v>482.351750511075</v>
       </c>
       <c r="S3">
-        <v>0.2380425362335946</v>
+        <v>0.1718077125430634</v>
       </c>
       <c r="T3">
-        <v>0.2380425362335946</v>
+        <v>0.1718077125430634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H4">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I4">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J4">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.62112133333333</v>
+        <v>32.37236033333333</v>
       </c>
       <c r="N4">
-        <v>34.863364</v>
+        <v>97.117081</v>
       </c>
       <c r="O4">
-        <v>0.1273414457031541</v>
+        <v>0.2828379032855822</v>
       </c>
       <c r="P4">
-        <v>0.1273414457031541</v>
+        <v>0.2828379032855822</v>
       </c>
       <c r="Q4">
-        <v>7.833085128691556</v>
+        <v>24.425625691067</v>
       </c>
       <c r="R4">
-        <v>70.497766158224</v>
+        <v>219.830631219603</v>
       </c>
       <c r="S4">
-        <v>0.03894507876602827</v>
+        <v>0.07830094501931437</v>
       </c>
       <c r="T4">
-        <v>0.03894507876602828</v>
+        <v>0.07830094501931437</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H5">
         <v>2.919578</v>
       </c>
       <c r="I5">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J5">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.607073666666667</v>
+        <v>11.05182166666667</v>
       </c>
       <c r="N5">
-        <v>25.821221</v>
+        <v>33.155465</v>
       </c>
       <c r="O5">
-        <v>0.09431423806264486</v>
+        <v>0.09655996768538078</v>
       </c>
       <c r="P5">
-        <v>0.09431423806264484</v>
+        <v>0.09655996768538078</v>
       </c>
       <c r="Q5">
-        <v>8.376340973859779</v>
+        <v>10.75555179930778</v>
       </c>
       <c r="R5">
-        <v>75.387068764738</v>
+        <v>96.79996619377</v>
       </c>
       <c r="S5">
-        <v>0.04164607605286816</v>
+        <v>0.03447894767330306</v>
       </c>
       <c r="T5">
-        <v>0.04164607605286816</v>
+        <v>0.03447894767330306</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H6">
         <v>2.919578</v>
       </c>
       <c r="I6">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J6">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>213.094025</v>
       </c>
       <c r="O6">
-        <v>0.7783443162342011</v>
+        <v>0.620602129029037</v>
       </c>
       <c r="P6">
-        <v>0.778344316234201</v>
+        <v>0.620602129029037</v>
       </c>
       <c r="Q6">
         <v>69.12718081349445</v>
       </c>
       <c r="R6">
-        <v>622.1446273214501</v>
+        <v>622.14462732145</v>
       </c>
       <c r="S6">
-        <v>0.3436913371200296</v>
+        <v>0.2216002018813047</v>
       </c>
       <c r="T6">
-        <v>0.3436913371200296</v>
+        <v>0.2216002018813047</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H7">
         <v>2.919578</v>
       </c>
       <c r="I7">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J7">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.62112133333333</v>
+        <v>32.37236033333333</v>
       </c>
       <c r="N7">
-        <v>34.863364</v>
+        <v>97.117081</v>
       </c>
       <c r="O7">
-        <v>0.1273414457031541</v>
+        <v>0.2828379032855822</v>
       </c>
       <c r="P7">
-        <v>0.1273414457031541</v>
+        <v>0.2828379032855822</v>
       </c>
       <c r="Q7">
-        <v>11.30959006004356</v>
+        <v>31.50454367909089</v>
       </c>
       <c r="R7">
-        <v>101.786310540392</v>
+        <v>283.540893111818</v>
       </c>
       <c r="S7">
-        <v>0.05622980836587184</v>
+        <v>0.1009937503208878</v>
       </c>
       <c r="T7">
-        <v>0.05622980836587185</v>
+        <v>0.1009937503208878</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H8">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I8">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J8">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.607073666666667</v>
+        <v>11.05182166666667</v>
       </c>
       <c r="N8">
-        <v>25.821221</v>
+        <v>33.155465</v>
       </c>
       <c r="O8">
-        <v>0.09431423806264486</v>
+        <v>0.09655996768538078</v>
       </c>
       <c r="P8">
-        <v>0.09431423806264484</v>
+        <v>0.09655996768538078</v>
       </c>
       <c r="Q8">
-        <v>4.373469306875</v>
+        <v>8.647398396688335</v>
       </c>
       <c r="R8">
-        <v>39.361223761875</v>
+        <v>77.82658557019501</v>
       </c>
       <c r="S8">
-        <v>0.02174431961848284</v>
+        <v>0.02772086475831122</v>
       </c>
       <c r="T8">
-        <v>0.02174431961848284</v>
+        <v>0.02772086475831123</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H9">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I9">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J9">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>213.094025</v>
       </c>
       <c r="O9">
-        <v>0.7783443162342011</v>
+        <v>0.620602129029037</v>
       </c>
       <c r="P9">
-        <v>0.778344316234201</v>
+        <v>0.620602129029037</v>
       </c>
       <c r="Q9">
-        <v>36.092800484375</v>
+        <v>55.57783400500833</v>
       </c>
       <c r="R9">
-        <v>324.835204359375</v>
+        <v>500.200506045075</v>
       </c>
       <c r="S9">
-        <v>0.1794487018405897</v>
+        <v>0.178165217946097</v>
       </c>
       <c r="T9">
-        <v>0.1794487018405897</v>
+        <v>0.178165217946097</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H10">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I10">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J10">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.62112133333333</v>
+        <v>32.37236033333333</v>
       </c>
       <c r="N10">
-        <v>34.863364</v>
+        <v>97.117081</v>
       </c>
       <c r="O10">
-        <v>0.1273414457031541</v>
+        <v>0.2828379032855822</v>
       </c>
       <c r="P10">
-        <v>0.1273414457031541</v>
+        <v>0.2828379032855822</v>
       </c>
       <c r="Q10">
-        <v>5.9049822775</v>
+        <v>25.32946199157367</v>
       </c>
       <c r="R10">
-        <v>53.1448404975</v>
+        <v>227.965157924163</v>
       </c>
       <c r="S10">
-        <v>0.02935880258301915</v>
+        <v>0.08119836256626038</v>
       </c>
       <c r="T10">
-        <v>0.02935880258301915</v>
+        <v>0.0811983625662604</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H11">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I11">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J11">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.607073666666667</v>
+        <v>11.05182166666667</v>
       </c>
       <c r="N11">
-        <v>25.821221</v>
+        <v>33.155465</v>
       </c>
       <c r="O11">
-        <v>0.09431423806264486</v>
+        <v>0.09655996768538078</v>
       </c>
       <c r="P11">
-        <v>0.09431423806264484</v>
+        <v>0.09655996768538078</v>
       </c>
       <c r="Q11">
-        <v>0.4182607448316666</v>
+        <v>2.379663505504444</v>
       </c>
       <c r="R11">
-        <v>3.764346703485</v>
+        <v>21.41697154954</v>
       </c>
       <c r="S11">
-        <v>0.002079537932320144</v>
+        <v>0.007628459703168113</v>
       </c>
       <c r="T11">
-        <v>0.002079537932320144</v>
+        <v>0.007628459703168113</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H12">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I12">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J12">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>213.094025</v>
       </c>
       <c r="O12">
-        <v>0.7783443162342011</v>
+        <v>0.620602129029037</v>
       </c>
       <c r="P12">
-        <v>0.778344316234201</v>
+        <v>0.620602129029037</v>
       </c>
       <c r="Q12">
-        <v>3.451768048291667</v>
+        <v>15.29437377921111</v>
       </c>
       <c r="R12">
-        <v>31.065912434625</v>
+        <v>137.6493640129</v>
       </c>
       <c r="S12">
-        <v>0.01716174103998712</v>
+        <v>0.04902899665857192</v>
       </c>
       <c r="T12">
-        <v>0.01716174103998712</v>
+        <v>0.04902899665857192</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H13">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I13">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J13">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.62112133333333</v>
+        <v>32.37236033333333</v>
       </c>
       <c r="N13">
-        <v>34.863364</v>
+        <v>97.117081</v>
       </c>
       <c r="O13">
-        <v>0.1273414457031541</v>
+        <v>0.2828379032855822</v>
       </c>
       <c r="P13">
-        <v>0.1273414457031541</v>
+        <v>0.2828379032855822</v>
       </c>
       <c r="Q13">
-        <v>0.5647283911933333</v>
+        <v>6.970373463826222</v>
       </c>
       <c r="R13">
-        <v>5.08255552074</v>
+        <v>62.733361174436</v>
       </c>
       <c r="S13">
-        <v>0.002807755988234815</v>
+        <v>0.02234484537911966</v>
       </c>
       <c r="T13">
-        <v>0.002807755988234815</v>
+        <v>0.02234484537911966</v>
       </c>
     </row>
   </sheetData>
